--- a/MID/Create-Set/Data.xlsx
+++ b/MID/Create-Set/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mao8ct\Desktop\PyAutomateSAP\MID\Create-Set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF7907B4-599A-4D8F-B859-5F81306FDEB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8B2F8D-B4A0-47E5-B65A-CB4B700C6EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DA559316-2AF9-4D0B-B5C6-461FA99B0A82}"/>
   </bookViews>
@@ -538,7 +538,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,7 +564,7 @@
         <v>4718301460</v>
       </c>
       <c r="B2" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
@@ -597,7 +597,7 @@
         <v>4718301303</v>
       </c>
       <c r="B5" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>6</v>
@@ -817,5 +817,6 @@
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/MID/Create-Set/Data.xlsx
+++ b/MID/Create-Set/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mao8ct\Desktop\PyAutomateSAP\MID\Create-Set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8B2F8D-B4A0-47E5-B65A-CB4B700C6EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E880713-5C63-4DB4-BCBE-C96AB523C69C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DA559316-2AF9-4D0B-B5C6-461FA99B0A82}"/>
   </bookViews>
@@ -538,7 +538,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,7 +564,7 @@
         <v>4718301460</v>
       </c>
       <c r="B2" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>

--- a/MID/Create-Set/Data.xlsx
+++ b/MID/Create-Set/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mao8ct\Desktop\PyAutomateSAP\MID\Create-Set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E880713-5C63-4DB4-BCBE-C96AB523C69C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BA7E10-6A8A-4ED1-A65C-5F4BBFF78E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DA559316-2AF9-4D0B-B5C6-461FA99B0A82}"/>
   </bookViews>
@@ -538,7 +538,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,7 +597,7 @@
         <v>4718301303</v>
       </c>
       <c r="B5" s="2">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>6</v>

--- a/MID/Create-Set/Data.xlsx
+++ b/MID/Create-Set/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mao8ct\Desktop\PyAutomateSAP\MID\Create-Set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BA7E10-6A8A-4ED1-A65C-5F4BBFF78E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2D7638-7BC0-409A-B23F-F22885165123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DA559316-2AF9-4D0B-B5C6-461FA99B0A82}"/>
   </bookViews>
@@ -538,7 +538,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,7 +597,7 @@
         <v>4718301303</v>
       </c>
       <c r="B5" s="2">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>6</v>

--- a/MID/Create-Set/Data.xlsx
+++ b/MID/Create-Set/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mao8ct\Desktop\PyAutomateSAP\MID\Create-Set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2D7638-7BC0-409A-B23F-F22885165123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5234367A-1528-497A-80AD-494A7E09D32B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DA559316-2AF9-4D0B-B5C6-461FA99B0A82}"/>
   </bookViews>
@@ -597,7 +597,7 @@
         <v>4718301303</v>
       </c>
       <c r="B5" s="2">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>6</v>

--- a/MID/Create-Set/Data.xlsx
+++ b/MID/Create-Set/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mao8ct\Desktop\PyAutomateSAP\MID\Create-Set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5234367A-1528-497A-80AD-494A7E09D32B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E1CB74-202F-40EF-9C55-AFCD7F1561A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DA559316-2AF9-4D0B-B5C6-461FA99B0A82}"/>
   </bookViews>
@@ -538,7 +538,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B11" sqref="B11:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,7 +663,7 @@
         <v>4718301772</v>
       </c>
       <c r="B11" s="1">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>12</v>

--- a/MID/Create-Set/Data.xlsx
+++ b/MID/Create-Set/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mao8ct\Desktop\PyAutomateSAP\MID\Create-Set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E1CB74-202F-40EF-9C55-AFCD7F1561A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE642B41-39BC-46C1-8431-974338135210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DA559316-2AF9-4D0B-B5C6-461FA99B0A82}"/>
   </bookViews>
@@ -538,7 +538,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B24"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,7 +663,7 @@
         <v>4718301772</v>
       </c>
       <c r="B11" s="1">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>12</v>

--- a/MID/Create-Set/Data.xlsx
+++ b/MID/Create-Set/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mao8ct\Desktop\PyAutomateSAP\MID\Create-Set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE642B41-39BC-46C1-8431-974338135210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616BD170-AAEA-4147-84F1-0C40CCE15AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DA559316-2AF9-4D0B-B5C6-461FA99B0A82}"/>
   </bookViews>
@@ -538,7 +538,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,7 +795,7 @@
         <v>4718301758</v>
       </c>
       <c r="B23" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>24</v>

--- a/MID/Create-Set/Data.xlsx
+++ b/MID/Create-Set/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mao8ct\Desktop\PyAutomateSAP\MID\Create-Set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616BD170-AAEA-4147-84F1-0C40CCE15AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655C02DF-86A7-4271-8D5E-20AC7137373F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DA559316-2AF9-4D0B-B5C6-461FA99B0A82}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Norma</t>
   </si>
@@ -47,73 +47,28 @@
     <t>Nome</t>
   </si>
   <si>
-    <t>Régua CRI e P - 0</t>
-  </si>
-  <si>
-    <t>Régua CRI - 0</t>
-  </si>
-  <si>
-    <t>Régua CRI 091 - 0</t>
-  </si>
-  <si>
-    <t>Encosto Agulha CRI, P e Zexel - 0</t>
-  </si>
-  <si>
-    <t>Encosto Agulha CRI - 0</t>
-  </si>
-  <si>
-    <t>Régua Agulha Zexel - 0</t>
-  </si>
-  <si>
-    <t>Régua 756 Agulha S - 0</t>
-  </si>
-  <si>
-    <t>Régua 787 Agulha S - 0</t>
-  </si>
-  <si>
-    <t>Régua Agulha S - 0</t>
-  </si>
-  <si>
-    <t>Encosto Agulha S - 0</t>
-  </si>
-  <si>
-    <t>Régua Agulha LCMV - 0</t>
-  </si>
-  <si>
-    <t>Régua Final Agulha CRI - 0</t>
-  </si>
-  <si>
-    <t>Régua 609 Final Agulha CRI - 0</t>
-  </si>
-  <si>
-    <t>Regua Final Agulha P - 0</t>
-  </si>
-  <si>
-    <t>Régua 997 Final Agulha CRI - 0</t>
-  </si>
-  <si>
-    <t>Regua 461 Final Agulha P - 0</t>
-  </si>
-  <si>
-    <t>Régua 814 Agulha S60 - 0</t>
-  </si>
-  <si>
-    <t>Régua 815 Agulha S60 - 0</t>
-  </si>
-  <si>
-    <t>Régua 805 Agulha Zexel - 0</t>
-  </si>
-  <si>
-    <t>Régua 819 Agulha S - 0</t>
-  </si>
-  <si>
-    <t>Régua 798 Agulha LCMV - 0</t>
-  </si>
-  <si>
-    <t>Régua 758 Agulha S - 0</t>
-  </si>
-  <si>
-    <t>Régua 759 Agulha S - 0</t>
+    <t xml:space="preserve">4729108508 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4328700313 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4729106784 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4729107242 </t>
+  </si>
+  <si>
+    <t>Tubeira de corpo - Gluth - 0</t>
+  </si>
+  <si>
+    <t>Tubeira Gluth 4mm - 0</t>
+  </si>
+  <si>
+    <t>Placa Naxus - 0</t>
+  </si>
+  <si>
+    <t>Roldana de chanfro S - 0</t>
   </si>
 </sst>
 </file>
@@ -196,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -208,6 +163,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -538,7 +496,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,257 +518,143 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>4718301460</v>
+      <c r="A2" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B2" s="1">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2">
+        <v>41</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>4718301610</v>
-      </c>
-      <c r="B3" s="2">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>4728701091</v>
-      </c>
       <c r="B4" s="1">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4718301303</v>
+      <c r="A5" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="B5" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>4718301617</v>
-      </c>
-      <c r="B6" s="1">
-        <v>12</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>4718301818</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>4718301756</v>
-      </c>
-      <c r="B8" s="2">
-        <v>5</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>4718301787</v>
-      </c>
-      <c r="B9" s="1">
-        <v>4</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>4718301757</v>
-      </c>
-      <c r="B10" s="2">
-        <v>2</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>4718301772</v>
-      </c>
-      <c r="B11" s="1">
-        <v>18</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>4718301804</v>
-      </c>
-      <c r="B12" s="1">
-        <v>3</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>4728701146</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>4718301609</v>
-      </c>
-      <c r="B14" s="1">
-        <v>7</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>4718301697</v>
-      </c>
-      <c r="B15" s="2">
-        <v>3</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>4728700997</v>
-      </c>
-      <c r="B16" s="1">
-        <v>1</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>4718301461</v>
-      </c>
-      <c r="B17" s="2">
-        <v>3</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>4718301814</v>
-      </c>
-      <c r="B18" s="1">
-        <v>2</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>4718301815</v>
-      </c>
-      <c r="B19" s="2">
-        <v>3</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>4718301805</v>
-      </c>
-      <c r="B20" s="1">
-        <v>6</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>4718301819</v>
-      </c>
-      <c r="B21" s="2">
-        <v>2</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>4718301798</v>
-      </c>
-      <c r="B22" s="1">
-        <v>1</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>4718301758</v>
-      </c>
-      <c r="B23" s="2">
-        <v>4</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>4718301759</v>
-      </c>
-      <c r="B24" s="1">
-        <v>6</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A24">
